--- a/docs/輸入法鍵盤設計表.xlsx
+++ b/docs/輸入法鍵盤設計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7E5129-7DC2-4731-998F-75B3903208B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFDB520-9EAC-44FD-BA0B-4A92C9B49DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{28F1D67D-D646-F742-8C6B-20DFC10DC14C}"/>
   </bookViews>
@@ -2218,6 +2218,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2229,12 +2230,14 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -2254,6 +2257,7 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
@@ -2296,6 +2300,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -2328,6 +2333,8 @@
       <sz val="28"/>
       <color theme="8"/>
       <name val="Noto Serif TC Bold"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -2388,6 +2395,8 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Bold"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -2531,6 +2540,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -3469,72 +3479,72 @@
     <xf numFmtId="0" fontId="69" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3544,6 +3554,36 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3562,47 +3602,17 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4997,161 +5007,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="30" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158" t="s">
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158" t="s">
+      <c r="F2" s="179"/>
+      <c r="G2" s="179" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158" t="s">
+      <c r="H2" s="179"/>
+      <c r="I2" s="179" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158" t="s">
+      <c r="J2" s="179"/>
+      <c r="K2" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158" t="s">
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179" t="s">
         <v>235</v>
       </c>
-      <c r="P2" s="158"/>
+      <c r="P2" s="179"/>
     </row>
     <row r="3" spans="2:16" s="30" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="179" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158" t="s">
+      <c r="F3" s="179"/>
+      <c r="G3" s="179" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158" t="s">
+      <c r="H3" s="179"/>
+      <c r="I3" s="179" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158" t="s">
+      <c r="J3" s="179"/>
+      <c r="K3" s="179" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158" t="s">
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179" t="s">
         <v>235</v>
       </c>
-      <c r="P3" s="158"/>
+      <c r="P3" s="179"/>
     </row>
     <row r="4" spans="2:16" s="30" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="179" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158" t="s">
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158" t="s">
+      <c r="F4" s="179"/>
+      <c r="G4" s="179" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158" t="s">
+      <c r="H4" s="179"/>
+      <c r="I4" s="179" t="s">
         <v>238</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158" t="s">
+      <c r="J4" s="179"/>
+      <c r="K4" s="179" t="s">
         <v>242</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158" t="s">
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="158"/>
+      <c r="P4" s="179"/>
     </row>
     <row r="5" spans="2:16" s="30" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="179" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158" t="s">
+      <c r="F5" s="179"/>
+      <c r="G5" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158" t="s">
+      <c r="H5" s="179"/>
+      <c r="I5" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158" t="s">
+      <c r="J5" s="179"/>
+      <c r="K5" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158" t="s">
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="158"/>
+      <c r="P5" s="179"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="172" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="159" t="s">
+      <c r="F7" s="176"/>
+      <c r="G7" s="167" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="172" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="173"/>
-      <c r="K7" s="159" t="s">
+      <c r="J7" s="178"/>
+      <c r="K7" s="167" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="160"/>
-      <c r="M7" s="159" t="s">
+      <c r="L7" s="168"/>
+      <c r="M7" s="167" t="s">
         <v>252</v>
       </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="159" t="s">
+      <c r="N7" s="168"/>
+      <c r="O7" s="167" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="160"/>
+      <c r="P7" s="168"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="158" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="169" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="170" t="s">
         <v>256</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -5184,9 +5194,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="170"/>
       <c r="E9" s="36" t="s">
         <v>259</v>
       </c>
@@ -5217,9 +5227,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="161"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="164" t="s">
+      <c r="B10" s="158"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="166" t="s">
         <v>267</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -5248,9 +5258,9 @@
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="161"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="164"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="36" t="s">
         <v>268</v>
       </c>
@@ -5277,11 +5287,11 @@
       <c r="P11" s="37"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="161"/>
-      <c r="C12" s="165" t="s">
+      <c r="B12" s="158"/>
+      <c r="C12" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="166" t="s">
+      <c r="D12" s="171" t="s">
         <v>275</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -5306,9 +5316,9 @@
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="36" t="s">
         <v>213</v>
       </c>
@@ -5331,13 +5341,13 @@
       <c r="P13" s="37"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="158" t="s">
         <v>279</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="175" t="s">
+      <c r="D14" s="160" t="s">
         <v>256</v>
       </c>
       <c r="E14" s="31"/>
@@ -5362,9 +5372,9 @@
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="161"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
       <c r="G15" s="38"/>
@@ -5387,9 +5397,9 @@
       <c r="P15" s="37"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="164" t="s">
+      <c r="B16" s="158"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="166" t="s">
         <v>267</v>
       </c>
       <c r="E16" s="31"/>
@@ -5414,9 +5424,9 @@
       <c r="P16" s="32"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="164"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
@@ -5439,11 +5449,11 @@
       <c r="P17" s="37"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="161"/>
-      <c r="C18" s="165" t="s">
+      <c r="B18" s="158"/>
+      <c r="C18" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="175" t="s">
+      <c r="D18" s="160" t="s">
         <v>275</v>
       </c>
       <c r="E18" s="31"/>
@@ -5468,9 +5478,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="161"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
       <c r="G19" s="38"/>
@@ -5493,13 +5503,13 @@
       <c r="P19" s="37"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="158" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="174" t="s">
+      <c r="C20" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="175" t="s">
+      <c r="D20" s="160" t="s">
         <v>275</v>
       </c>
       <c r="E20" s="31"/>
@@ -5524,9 +5534,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="161"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="36"/>
       <c r="F21" s="37"/>
       <c r="G21" s="38"/>
@@ -5549,9 +5559,9 @@
       <c r="P21" s="37"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="161"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="176" t="s">
+      <c r="B22" s="158"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="165" t="s">
         <v>302</v>
       </c>
       <c r="E22" s="31"/>
@@ -5572,9 +5582,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="161"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="176"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="36"/>
       <c r="F23" s="37"/>
       <c r="G23" s="38"/>
@@ -5593,13 +5603,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="158" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="175" t="s">
+      <c r="D24" s="160" t="s">
         <v>275</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -5628,9 +5638,9 @@
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="161"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="175"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
       <c r="E25" s="36" t="s">
         <v>212</v>
       </c>
@@ -5657,13 +5667,13 @@
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="158" t="s">
         <v>311</v>
       </c>
-      <c r="C26" s="165" t="s">
+      <c r="C26" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="160" t="s">
         <v>275</v>
       </c>
       <c r="E26" s="31"/>
@@ -5684,9 +5694,9 @@
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="161"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="175"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
       <c r="E27" s="36"/>
       <c r="F27" s="37"/>
       <c r="G27" s="38" t="s">
@@ -5708,23 +5718,23 @@
       <c r="B29" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="161" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
     </row>
     <row r="30" spans="2:17" s="43" customFormat="1" ht="25.5">
       <c r="B30" s="41"/>
@@ -5768,10 +5778,10 @@
       <c r="B32" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="179"/>
+      <c r="D32" s="163"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="44" t="s">
@@ -5786,37 +5796,20 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -5831,20 +5824,37 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -7987,7 +7997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E8EA02-61C4-2F42-B8BB-0AF59DDC5292}">
   <dimension ref="A1:BL59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -8060,56 +8070,56 @@
       </c>
       <c r="F2" s="181"/>
       <c r="G2" s="182"/>
-      <c r="H2" s="183" t="s">
+      <c r="H2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="184"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="184"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186">
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="196">
         <v>0.05</v>
       </c>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="183" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="184"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="183" t="s">
+      <c r="R2" s="194"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="184"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="196" t="s">
+      <c r="U2" s="194"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="196" t="s">
+      <c r="X2" s="184"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="196" t="s">
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="189" t="s">
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="189" t="s">
+      <c r="AG2" s="189"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="191"/>
+      <c r="AJ2" s="189"/>
+      <c r="AK2" s="190"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
@@ -8158,38 +8168,38 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="192" t="s">
+      <c r="H3" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="193"/>
+      <c r="I3" s="192"/>
       <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="192" t="s">
+      <c r="K3" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="193"/>
+      <c r="L3" s="192"/>
       <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="192" t="s">
+      <c r="N3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="192"/>
       <c r="P3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="192" t="s">
+      <c r="Q3" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="193"/>
+      <c r="R3" s="192"/>
       <c r="S3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="192" t="s">
+      <c r="T3" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="193"/>
+      <c r="U3" s="192"/>
       <c r="V3" s="6" t="s">
         <v>24</v>
       </c>
@@ -8230,8 +8240,8 @@
       <c r="AH3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="194"/>
-      <c r="AJ3" s="195"/>
+      <c r="AI3" s="186"/>
+      <c r="AJ3" s="187"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -8297,41 +8307,41 @@
       </c>
       <c r="S4" s="181"/>
       <c r="T4" s="182"/>
-      <c r="U4" s="196" t="s">
+      <c r="U4" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="197"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="196" t="s">
+      <c r="V4" s="184"/>
+      <c r="W4" s="185"/>
+      <c r="X4" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="196" t="s">
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="196" t="s">
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="197"/>
-      <c r="AF4" s="198"/>
-      <c r="AG4" s="196" t="s">
+      <c r="AE4" s="184"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="198"/>
-      <c r="AJ4" s="196" t="s">
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="189" t="s">
+      <c r="AK4" s="184"/>
+      <c r="AL4" s="185"/>
+      <c r="AM4" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="AN4" s="190"/>
-      <c r="AO4" s="191"/>
+      <c r="AN4" s="189"/>
+      <c r="AO4" s="190"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="103"/>
@@ -8463,14 +8473,14 @@
       <c r="AF5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AG5" s="194"/>
-      <c r="AH5" s="195"/>
+      <c r="AG5" s="186"/>
+      <c r="AH5" s="187"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="194"/>
-      <c r="AK5" s="195"/>
+      <c r="AJ5" s="186"/>
+      <c r="AK5" s="187"/>
       <c r="AL5" s="8"/>
-      <c r="AM5" s="194"/>
-      <c r="AN5" s="195"/>
+      <c r="AM5" s="186"/>
+      <c r="AN5" s="187"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -8534,31 +8544,31 @@
       </c>
       <c r="T6" s="181"/>
       <c r="U6" s="182"/>
-      <c r="V6" s="196" t="s">
+      <c r="V6" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="W6" s="197"/>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="196" t="s">
+      <c r="W6" s="184"/>
+      <c r="X6" s="185"/>
+      <c r="Y6" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="196" t="s">
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="196" t="s">
+      <c r="AC6" s="184"/>
+      <c r="AD6" s="185"/>
+      <c r="AE6" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="198"/>
-      <c r="AH6" s="189" t="s">
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="185"/>
+      <c r="AH6" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="AI6" s="190"/>
-      <c r="AJ6" s="191"/>
+      <c r="AI6" s="189"/>
+      <c r="AJ6" s="190"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
@@ -8688,8 +8698,8 @@
       <c r="AG7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AH7" s="194"/>
-      <c r="AI7" s="195"/>
+      <c r="AH7" s="186"/>
+      <c r="AI7" s="187"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
@@ -8759,26 +8769,26 @@
       </c>
       <c r="U8" s="181"/>
       <c r="V8" s="182"/>
-      <c r="W8" s="196" t="s">
+      <c r="W8" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="196" t="s">
+      <c r="X8" s="184"/>
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="196" t="s">
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="198"/>
-      <c r="AF8" s="189" t="s">
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AG8" s="190"/>
-      <c r="AH8" s="191"/>
+      <c r="AG8" s="189"/>
+      <c r="AH8" s="190"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
@@ -13405,45 +13415,11 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="H3:I3"/>
@@ -13456,11 +13432,45 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AF8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13527,13 +13537,13 @@
       <c r="AN1" s="127"/>
       <c r="AO1" s="127"/>
       <c r="AP1" s="127"/>
-      <c r="AQ1" s="200"/>
-      <c r="AR1" s="200"/>
+      <c r="AQ1" s="202"/>
+      <c r="AR1" s="202"/>
       <c r="AS1" s="127"/>
       <c r="AT1" s="127"/>
       <c r="AU1" s="127"/>
     </row>
-    <row r="2" spans="1:47" s="126" customFormat="1" ht="34.5">
+    <row r="2" spans="1:47" s="126" customFormat="1" ht="38.25">
       <c r="B2" s="132" t="s">
         <v>381</v>
       </c>
@@ -14845,105 +14855,105 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="201" t="str">
+      <c r="C11" s="200" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201"/>
-      <c r="Z11" s="201"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="200"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="200"/>
+      <c r="X11" s="200"/>
+      <c r="Y11" s="200"/>
+      <c r="Z11" s="200"/>
     </row>
     <row r="12" spans="1:47" s="126" customFormat="1" ht="23.25">
       <c r="B12" s="135" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="199" t="str">
+      <c r="C12" s="201" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="199"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="199"/>
-      <c r="R12" s="199"/>
-      <c r="S12" s="199"/>
-      <c r="T12" s="199"/>
-      <c r="U12" s="199"/>
-      <c r="V12" s="199"/>
-      <c r="W12" s="199"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="199"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="201"/>
+      <c r="S12" s="201"/>
+      <c r="T12" s="201"/>
+      <c r="U12" s="201"/>
+      <c r="V12" s="201"/>
+      <c r="W12" s="201"/>
+      <c r="X12" s="201"/>
+      <c r="Y12" s="201"/>
+      <c r="Z12" s="201"/>
     </row>
     <row r="13" spans="1:47" s="126" customFormat="1" ht="23.25"/>
-    <row r="14" spans="1:47" s="126" customFormat="1" ht="34.5">
+    <row r="14" spans="1:47" s="126" customFormat="1" ht="38.25">
       <c r="B14" s="132" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:47" s="126" customFormat="1" ht="23.25">
-      <c r="B15" s="202" t="str">
+      <c r="B15" s="199" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="202"/>
-      <c r="Q15" s="202"/>
-      <c r="R15" s="202"/>
-      <c r="S15" s="202"/>
-      <c r="T15" s="202"/>
-      <c r="U15" s="202"/>
-      <c r="V15" s="202"/>
-      <c r="W15" s="202"/>
-      <c r="X15" s="202"/>
-      <c r="Y15" s="202"/>
-      <c r="Z15" s="202"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="199"/>
+      <c r="O15" s="199"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199"/>
+      <c r="R15" s="199"/>
+      <c r="S15" s="199"/>
+      <c r="T15" s="199"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="199"/>
+      <c r="W15" s="199"/>
+      <c r="X15" s="199"/>
+      <c r="Y15" s="199"/>
+      <c r="Z15" s="199"/>
     </row>
     <row r="16" spans="1:47" s="126" customFormat="1" ht="23.25"/>
-    <row r="17" spans="2:26" s="126" customFormat="1" ht="34.5">
+    <row r="17" spans="2:26" s="126" customFormat="1" ht="38.25">
       <c r="B17" s="132" t="s">
         <v>379</v>
       </c>
@@ -14954,105 +14964,105 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="201" t="str">
+      <c r="C19" s="200" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="201"/>
-      <c r="R19" s="201"/>
-      <c r="S19" s="201"/>
-      <c r="T19" s="201"/>
-      <c r="U19" s="201"/>
-      <c r="V19" s="201"/>
-      <c r="W19" s="201"/>
-      <c r="X19" s="201"/>
-      <c r="Y19" s="201"/>
-      <c r="Z19" s="201"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="200"/>
+      <c r="P19" s="200"/>
+      <c r="Q19" s="200"/>
+      <c r="R19" s="200"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="200"/>
+      <c r="U19" s="200"/>
+      <c r="V19" s="200"/>
+      <c r="W19" s="200"/>
+      <c r="X19" s="200"/>
+      <c r="Y19" s="200"/>
+      <c r="Z19" s="200"/>
     </row>
     <row r="20" spans="2:26" s="126" customFormat="1" ht="23.25">
       <c r="B20" s="133" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="199" t="str">
+      <c r="C20" s="201" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="199"/>
-      <c r="L20" s="199"/>
-      <c r="M20" s="199"/>
-      <c r="N20" s="199"/>
-      <c r="O20" s="199"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="199"/>
-      <c r="S20" s="199"/>
-      <c r="T20" s="199"/>
-      <c r="U20" s="199"/>
-      <c r="V20" s="199"/>
-      <c r="W20" s="199"/>
-      <c r="X20" s="199"/>
-      <c r="Y20" s="199"/>
-      <c r="Z20" s="199"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="201"/>
+      <c r="S20" s="201"/>
+      <c r="T20" s="201"/>
+      <c r="U20" s="201"/>
+      <c r="V20" s="201"/>
+      <c r="W20" s="201"/>
+      <c r="X20" s="201"/>
+      <c r="Y20" s="201"/>
+      <c r="Z20" s="201"/>
     </row>
     <row r="21" spans="2:26" s="126" customFormat="1" ht="23.25"/>
-    <row r="22" spans="2:26" s="126" customFormat="1" ht="34.5">
+    <row r="22" spans="2:26" s="126" customFormat="1" ht="38.25">
       <c r="B22" s="132" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="23" spans="2:26" s="126" customFormat="1" ht="23.25">
-      <c r="B23" s="202" t="str">
+      <c r="B23" s="199" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="202"/>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="202"/>
-      <c r="R23" s="202"/>
-      <c r="S23" s="202"/>
-      <c r="T23" s="202"/>
-      <c r="U23" s="202"/>
-      <c r="V23" s="202"/>
-      <c r="W23" s="202"/>
-      <c r="X23" s="202"/>
-      <c r="Y23" s="202"/>
-      <c r="Z23" s="202"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="199"/>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="199"/>
+      <c r="S23" s="199"/>
+      <c r="T23" s="199"/>
+      <c r="U23" s="199"/>
+      <c r="V23" s="199"/>
+      <c r="W23" s="199"/>
+      <c r="X23" s="199"/>
+      <c r="Y23" s="199"/>
+      <c r="Z23" s="199"/>
     </row>
     <row r="24" spans="2:26" s="126" customFormat="1" ht="23.25"/>
-    <row r="25" spans="2:26" s="126" customFormat="1" ht="34.5">
+    <row r="25" spans="2:26" s="126" customFormat="1" ht="38.25">
       <c r="B25" s="132" t="s">
         <v>378</v>
       </c>
@@ -15063,102 +15073,102 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="201" t="str">
+      <c r="C27" s="200" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="201"/>
-      <c r="O27" s="201"/>
-      <c r="P27" s="201"/>
-      <c r="Q27" s="201"/>
-      <c r="R27" s="201"/>
-      <c r="S27" s="201"/>
-      <c r="T27" s="201"/>
-      <c r="U27" s="201"/>
-      <c r="V27" s="201"/>
-      <c r="W27" s="201"/>
-      <c r="X27" s="201"/>
-      <c r="Y27" s="201"/>
-      <c r="Z27" s="201"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="200"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="200"/>
+      <c r="T27" s="200"/>
+      <c r="U27" s="200"/>
+      <c r="V27" s="200"/>
+      <c r="W27" s="200"/>
+      <c r="X27" s="200"/>
+      <c r="Y27" s="200"/>
+      <c r="Z27" s="200"/>
     </row>
     <row r="28" spans="2:26" s="126" customFormat="1" ht="23.25">
       <c r="B28" s="133" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="199" t="str">
+      <c r="C28" s="201" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="199"/>
-      <c r="O28" s="199"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="199"/>
-      <c r="S28" s="199"/>
-      <c r="T28" s="199"/>
-      <c r="U28" s="199"/>
-      <c r="V28" s="199"/>
-      <c r="W28" s="199"/>
-      <c r="X28" s="199"/>
-      <c r="Y28" s="199"/>
-      <c r="Z28" s="199"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="201"/>
+      <c r="T28" s="201"/>
+      <c r="U28" s="201"/>
+      <c r="V28" s="201"/>
+      <c r="W28" s="201"/>
+      <c r="X28" s="201"/>
+      <c r="Y28" s="201"/>
+      <c r="Z28" s="201"/>
     </row>
     <row r="29" spans="2:26" s="126" customFormat="1" ht="23.25"/>
-    <row r="30" spans="2:26" s="126" customFormat="1" ht="34.5">
+    <row r="30" spans="2:26" s="126" customFormat="1" ht="38.25">
       <c r="B30" s="132" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="31" spans="2:26" s="126" customFormat="1" ht="23.25">
-      <c r="B31" s="202" t="str">
+      <c r="B31" s="199" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="202"/>
-      <c r="P31" s="202"/>
-      <c r="Q31" s="202"/>
-      <c r="R31" s="202"/>
-      <c r="S31" s="202"/>
-      <c r="T31" s="202"/>
-      <c r="U31" s="202"/>
-      <c r="V31" s="202"/>
-      <c r="W31" s="202"/>
-      <c r="X31" s="202"/>
-      <c r="Y31" s="202"/>
-      <c r="Z31" s="202"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="199"/>
+      <c r="O31" s="199"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="199"/>
+      <c r="R31" s="199"/>
+      <c r="S31" s="199"/>
+      <c r="T31" s="199"/>
+      <c r="U31" s="199"/>
+      <c r="V31" s="199"/>
+      <c r="W31" s="199"/>
+      <c r="X31" s="199"/>
+      <c r="Y31" s="199"/>
+      <c r="Z31" s="199"/>
     </row>
     <row r="32" spans="2:26" s="126" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="128" customFormat="1">
@@ -15449,8 +15459,8 @@
       <c r="AN38" s="127"/>
       <c r="AO38" s="127"/>
       <c r="AP38" s="127"/>
-      <c r="AQ38" s="200"/>
-      <c r="AR38" s="200"/>
+      <c r="AQ38" s="202"/>
+      <c r="AR38" s="202"/>
       <c r="AS38" s="127"/>
       <c r="AT38" s="127"/>
       <c r="AU38" s="127"/>
@@ -15458,17 +15468,17 @@
     <row r="39" spans="1:47" s="126" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
